--- a/write up/MDPI_template/Ref_Count.xlsx
+++ b/write up/MDPI_template/Ref_Count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlarriva\Documents\GitHub\inflation_cr_expansion\write up\MDPI_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\write up\MDPI_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC31CF0-14B9-44C0-9A67-DB4AC735999E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3928273-B01D-45B9-A2F7-37A6B9B73C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49EE3B8B-57F8-474C-B939-E580D88FFBB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49EE3B8B-57F8-474C-B939-E580D88FFBB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Ref Count</t>
   </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +60,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -71,15 +104,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,351 +509,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8E2F6A-7F9F-47A3-A835-5E6AB1C2B6F7}">
-  <dimension ref="B1:E62"/>
+  <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2018</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>2022</v>
       </c>
-      <c r="E2">
-        <f>COUNTIF(B:B,D2)</f>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E26" si="0">COUNTIF(B:B,D2)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="8">
+        <f>E2/SUM($E$2:$E$26)</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <f>F2</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2015</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>2021</v>
       </c>
-      <c r="E3">
-        <f>COUNTIF(B:B,D3)</f>
+      <c r="E3" s="11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F26" si="1">E3/SUM($E$2:$E$26)</f>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <f>+F3+G2</f>
+        <v>0.11290322580645161</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2021</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <f>COUNTIF(B:B,D4)</f>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G26" si="2">+F4+G3</f>
+        <v>0.17741935483870969</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2019</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>2019</v>
       </c>
-      <c r="E5">
-        <f>COUNTIF(B:B,D5)</f>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="2"/>
+        <v>0.24193548387096775</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2011</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>2018</v>
       </c>
-      <c r="E6">
-        <f>COUNTIF(B:B,D6)</f>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.30645161290322581</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2022</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>2017</v>
       </c>
-      <c r="E7">
-        <f>COUNTIF(B:B,D7)</f>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.38709677419354838</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2022</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>2016</v>
       </c>
-      <c r="E8">
-        <f>COUNTIF(B:B,D8)</f>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.41935483870967738</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2022</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>2015</v>
       </c>
-      <c r="E9">
-        <f>COUNTIF(B:B,D9)</f>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="2"/>
+        <v>0.43548387096774188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2022</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>2014</v>
       </c>
-      <c r="E10">
-        <f>COUNTIF(B:B,D10)</f>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.45161290322580638</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2021</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <v>2013</v>
       </c>
-      <c r="E11">
-        <f>COUNTIF(B:B,D11)</f>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2021</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>2012</v>
       </c>
-      <c r="E12">
-        <f>COUNTIF(B:B,D12)</f>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="2"/>
+        <v>0.5161290322580645</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2020</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>2011</v>
       </c>
-      <c r="E13">
-        <f>COUNTIF(B:B,D13)</f>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="2"/>
+        <v>0.532258064516129</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2020</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>2009</v>
       </c>
-      <c r="E14">
-        <f>COUNTIF(B:B,D14)</f>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.62903225806451613</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2019</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="10">
         <v>2008</v>
       </c>
-      <c r="E15">
-        <f>COUNTIF(B:B,D15)</f>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="2"/>
+        <v>0.66129032258064513</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2019</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>2005</v>
       </c>
-      <c r="E16">
-        <f>COUNTIF(B:B,D16)</f>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="2"/>
+        <v>0.72580645161290325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2019</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="10">
         <v>2003</v>
       </c>
-      <c r="E17">
-        <f>COUNTIF(B:B,D17)</f>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="2"/>
+        <v>0.74193548387096775</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2018</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>2002</v>
       </c>
-      <c r="E18">
-        <f>COUNTIF(B:B,D18)</f>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="2"/>
+        <v>0.75806451612903225</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2018</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="10">
         <v>2001</v>
       </c>
-      <c r="E19">
-        <f>COUNTIF(B:B,D19)</f>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="2"/>
+        <v>0.80645161290322576</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2018</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>2000</v>
       </c>
-      <c r="E20">
-        <f>COUNTIF(B:B,D20)</f>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="2"/>
+        <v>0.85483870967741926</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2017</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="10">
         <v>1997</v>
       </c>
-      <c r="E21">
-        <f>COUNTIF(B:B,D21)</f>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="12">
+        <f t="shared" si="1"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="2"/>
+        <v>0.90322580645161277</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2017</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>1996</v>
       </c>
-      <c r="E22">
-        <f>COUNTIF(B:B,D22)</f>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="2"/>
+        <v>0.91935483870967727</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2017</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="10">
         <v>1995</v>
       </c>
-      <c r="E23">
-        <f>COUNTIF(B:B,D23)</f>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="2"/>
+        <v>0.93548387096774177</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2017</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>1987</v>
       </c>
-      <c r="E24">
-        <f>COUNTIF(B:B,D24)</f>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="2"/>
+        <v>0.96774193548387077</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2017</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="10">
         <v>1981</v>
       </c>
-      <c r="E25">
-        <f>COUNTIF(B:B,D25)</f>
+      <c r="E25" s="11">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="2"/>
+        <v>0.98387096774193528</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2016</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>1962</v>
       </c>
-      <c r="E26">
-        <f>COUNTIF(B:B,D26)</f>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="14">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2014</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2013</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2013</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2013</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2012</v>
       </c>
